--- a/data/trans_bre/P3A_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R2-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 3,28</t>
+          <t>-5,88; 3,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 3,02</t>
+          <t>-4,99; 3,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 4,18</t>
+          <t>-3,13; 4,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 2,92</t>
+          <t>-2,91; 3,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-44,55; 36,05</t>
+          <t>-42,84; 34,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-48,8; 46,69</t>
+          <t>-49,86; 50,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-44,99; 117,52</t>
+          <t>-45,0; 109,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-32,89; 51,85</t>
+          <t>-34,25; 54,52</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 1,71</t>
+          <t>-4,58; 1,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 4,64</t>
+          <t>-2,89; 4,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 2,08</t>
+          <t>-2,75; 2,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 2,8</t>
+          <t>-1,8; 2,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,92; 58,85</t>
+          <t>-64,02; 59,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,28; 139,29</t>
+          <t>-49,08; 140,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-71,0; 143,34</t>
+          <t>-75,57; 162,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,01; 100,72</t>
+          <t>-35,08; 91,67</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 3,6</t>
+          <t>-2,29; 3,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 4,94</t>
+          <t>-0,54; 5,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 3,73</t>
+          <t>-1,54; 4,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,05; 9,12</t>
+          <t>1,65; 8,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-74,48; 227,24</t>
+          <t>-76,44; 210,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 337,52</t>
+          <t>-23,4; 292,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 401,66</t>
+          <t>-100,0; 453,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>52,41; 787,94</t>
+          <t>51,28; 942,43</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 0,38</t>
+          <t>-1,74; 0,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 0,68</t>
+          <t>-2,28; 0,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,31</t>
+          <t>-1,32; 1,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,26; -0,54</t>
+          <t>-3,94; -0,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,95; 32,18</t>
+          <t>-72,23; 36,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-69,48; 45,82</t>
+          <t>-73,76; 29,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-56,71; 102,62</t>
+          <t>-58,44; 95,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-74,48; -15,2</t>
+          <t>-70,24; -11,73</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 2,07</t>
+          <t>-1,35; 1,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 0,77</t>
+          <t>-3,92; 0,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 0,41</t>
+          <t>-2,32; 0,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,35</t>
+          <t>-0,98; 3,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-55,64; 453,98</t>
+          <t>-59,4; 451,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-62,13; 27,05</t>
+          <t>-63,4; 25,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-78,29; 36,32</t>
+          <t>-79,41; 29,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 123,63</t>
+          <t>-18,88; 114,88</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 0,3</t>
+          <t>-4,97; 0,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,37; 6,4</t>
+          <t>1,17; 6,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,26; 4,74</t>
+          <t>0,31; 4,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 7,53</t>
+          <t>-2,35; 7,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-66,55; 11,02</t>
+          <t>-67,05; 12,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,83; 558,15</t>
+          <t>19,18; 534,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 690,23</t>
+          <t>1,53; 633,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,29; 890,25</t>
+          <t>-28,26; 1031,78</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 0,11</t>
+          <t>-1,76; 0,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 1,77</t>
+          <t>-0,21; 1,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 1,55</t>
+          <t>-0,2; 1,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,25</t>
+          <t>-0,12; 2,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-40,7; 3,34</t>
+          <t>-40,11; 1,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 53,4</t>
+          <t>-5,15; 56,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 72,8</t>
+          <t>-8,05; 69,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 62,24</t>
+          <t>-2,37; 67,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P3A_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R2-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
